--- a/data/trans_camb/P41_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P41_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>25,1</t>
+          <t>21,25</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>16,33</t>
+          <t>21,31</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>18,62</t>
+          <t>23,12</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,58</t>
+          <t>24,87</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-15,19</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-12,92</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>11,32</t>
+          <t>-1,19</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>-1,93</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>10,21</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>10,04</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>10,81</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>10,3</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-20,21; 69,52</t>
+          <t>-2,89; 59,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-25,54; 58,99</t>
+          <t>-1,46; 60,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-21,95; 73,38</t>
+          <t>-3,95; 63,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-33,62; 30,78</t>
+          <t>-8,76; 67,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-44,46; 25,17</t>
+          <t>-8,62; 9,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-45,36; 23,22</t>
+          <t>-9,68; 8,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-14,27; 45,89</t>
+          <t>-9,77; 7,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-25,33; 33,41</t>
+          <t>-9,88; 6,15</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-23,87; 43,9</t>
+          <t>-0,93; 36,37</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-2,0; 38,18</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-3,08; 42,67</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-4,59; 43,73</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>65,61%</t>
+          <t>377,93%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>42,7%</t>
+          <t>378,93%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>48,67%</t>
+          <t>411,15%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,94%</t>
+          <t>442,23%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-28,33%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-24,1%</t>
+          <t>-11,95%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>24,1%</t>
+          <t>-18,48%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>-30,07%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>9,58%</t>
+          <t>168,74%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>165,96%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>178,6%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>170,24%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-47,23; 829,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-55,04; 615,14</t>
+          <t>-79,34; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-57,5; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-50,05; 85,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-68,73; 75,71</t>
+          <t>-89,06; 596,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-70,83; 64,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-27,79; 179,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-45,5; 116,41</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-47,02; 189,21</t>
+          <t>-26,91; 1805,77</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-37,98; 1918,51</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-49,36; 3488,31</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-70,33; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,03</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,72</t>
+          <t>4,84</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,51</t>
+          <t>8,28</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,56</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,34</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>6,4</t>
+          <t>-2,96</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,75</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>7,61</t>
+          <t>1,69</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2,58</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>2,88</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-0,07</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 21,49</t>
+          <t>-4,39; 10,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,31; 17,14</t>
+          <t>-2,49; 13,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 26,04</t>
+          <t>0,14; 17,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,02; 22,37</t>
+          <t>-7,16; 6,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 19,53</t>
+          <t>-5,53; 6,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-13,39; 16,52</t>
+          <t>-5,92; 6,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 16,44</t>
+          <t>-9,16; 2,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 13,12</t>
+          <t>-5,46; 7,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 18,3</t>
+          <t>-3,02; 6,52</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-2,23; 7,52</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-2,08; 8,41</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-4,59; 4,84</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>23,87%</t>
+          <t>29,5%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,76%</t>
+          <t>55,24%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>45,51%</t>
+          <t>94,52%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>22,04%</t>
+          <t>-9,21%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>17,94%</t>
+          <t>9,3%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>23,62%</t>
+          <t>-32,28%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>13,84%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>28,09%</t>
+          <t>18,85%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>28,74%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>32,1%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-0,82%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-24,92; 115,8</t>
+          <t>-37,8; 167,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-36,41; 95,17</t>
+          <t>-22,26; 240,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,57; 134,91</t>
+          <t>0,16; 315,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-21,44; 101,46</t>
+          <t>-62,61; 119,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-24,92; 87,85</t>
+          <t>-45,82; 115,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-37,54; 73,14</t>
+          <t>-48,79; 99,24</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-20,66; 71,69</t>
+          <t>-69,97; 43,03</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-21,35; 58,83</t>
+          <t>-46,03; 123,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-11,97; 82,1</t>
+          <t>-28,19; 95,29</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-21,99; 108,55</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-20,0; 121,97</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-42,21; 71,15</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,87</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,54</t>
+          <t>3,49</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,78</t>
+          <t>7,15</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,36</t>
+          <t>-5,43</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,32</t>
+          <t>-2,3</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,36</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>4,36</t>
+          <t>-8,76</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>6,81</t>
+          <t>-0,47</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1,55</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>4,24</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-7,43</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 12,37</t>
+          <t>-5,14; 10,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 16,04</t>
+          <t>-3,75; 11,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 19,91</t>
+          <t>-0,83; 16,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-13,35; 7,45</t>
+          <t>-12,32; 0,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 13,58</t>
+          <t>-11,22; 6,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 15,41</t>
+          <t>-9,01; 8,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,7; 6,56</t>
+          <t>-6,8; 10,91</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 12,08</t>
+          <t>-17,22; -2,03</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 14,13</t>
+          <t>-7,0; 4,84</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-4,43; 7,08</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-2,06; 9,89</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-12,81; -2,69</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>10,44%</t>
+          <t>19,25%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>30,87%</t>
+          <t>37,84%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>48,96%</t>
+          <t>77,52%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-9,16%</t>
+          <t>-58,94%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>12,89%</t>
+          <t>-11,84%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>20,76%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-2,2%</t>
+          <t>10,81%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>19,55%</t>
+          <t>-45,07%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>30,52%</t>
+          <t>-3,16%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>10,39%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>28,46%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-49,84%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1412,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-38,01; 98,11</t>
+          <t>-41,11; 191,03</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-21,16; 132,41</t>
+          <t>-34,08; 236,9</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-10,87; 155,2</t>
+          <t>-9,23; 324,52</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-42,7; 35,39</t>
+          <t>-91,65; 38,02</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-21,59; 66,26</t>
+          <t>-47,7; 46,37</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-16,04; 73,34</t>
+          <t>-37,73; 58,09</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-29,21; 35,52</t>
+          <t>-28,9; 71,56</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-12,22; 63,11</t>
+          <t>-69,62; -8,74</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 76,46</t>
+          <t>-39,23; 38,74</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-25,79; 58,75</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-13,65; 81,56</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-70,49; -19,48</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>6,63</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,36</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>12,44</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,78</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,02</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>4,64</t>
+          <t>—</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>7,82</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 17,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 16,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,3; 23,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,05; 9,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 11,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 11,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 11,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 10,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,24; 14,55</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>29,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>28,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>55,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>10,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>15,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>18,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>30,55%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,358 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-10,24; 93,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-9,32; 90,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>13,89; 125,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-24,26; 36,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-16,05; 45,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-16,16; 47,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-8,18; 48,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 47,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3,04; 61,21</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>4,95</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>6,61</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>9,99</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>1,95</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-0,55</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-0,85</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-3,92</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>2,01</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>3,16</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>4,38</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-1,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-0,49; 14,07</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0,61; 14,98</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>3,43; 19,77</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-4,51; 16,2</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-5,51; 4,44</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-4,59; 4,84</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-5,71; 3,95</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-8,45; 0,65</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-1,35; 7,44</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-0,3; 7,89</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>0,72; 10,02</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-4,92; 7,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>58,26%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>77,66%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>117,5%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>22,91%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-4,21%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>0,72%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-6,55%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-30,05%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>18,39%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>28,86%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>40,02%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-10,67%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-9,91; 197,07</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>4,08; 222,28</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>28,23; 292,06</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-50,56; 274,07</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-34,86; 39,09</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-28,99; 45,1</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-37,11; 35,88</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-53,8; 5,3</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-11,44; 77,8</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-4,11; 82,45</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>5,52; 101,73</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-42,76; 74,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
